--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_19-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_19-56.xlsx
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>GENUPHIL ADVANCE 10 SACHETS</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
@@ -1795,11 +1798,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1815,13 +1818,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1847,7 +1850,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1867,17 +1870,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1893,17 +1896,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1919,13 +1922,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1951,7 +1954,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1971,17 +1974,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1997,17 +2000,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2023,17 +2026,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2049,17 +2052,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2075,17 +2078,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>7.0499999999999998</v>
+        <v>130</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2101,17 +2104,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2133,11 +2136,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2159,11 +2162,11 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>160.55000000000001</v>
+        <v>58</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2179,17 +2182,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>13</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2197,7 +2200,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2205,17 +2208,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2231,17 +2234,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2257,17 +2260,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>115.2</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2283,17 +2286,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>28.710000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2309,13 +2312,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>30</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2335,17 +2338,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2361,17 +2364,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2387,17 +2390,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2405,7 +2408,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2413,17 +2416,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2431,7 +2434,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2439,17 +2442,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2457,7 +2460,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2465,7 +2468,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2483,7 +2486,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2491,17 +2494,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>40.5</v>
+        <v>56</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2517,17 +2520,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>96</v>
+        <v>40.5</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2535,7 +2538,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2543,13 +2546,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2569,13 +2572,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2587,7 +2590,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2595,17 +2598,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2613,7 +2616,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2621,17 +2624,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2647,17 +2650,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2673,13 +2676,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2699,17 +2702,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2725,17 +2728,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2743,7 +2746,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2751,17 +2754,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2769,7 +2772,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2777,13 +2780,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2795,7 +2798,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2803,17 +2806,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2829,17 +2832,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2855,51 +2858,77 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="K79" s="11">
-        <v>5805.2700000000004</v>
-      </c>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="12">
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
         <v>109</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c t="s" r="F80" s="13">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>96</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>8</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="26.25" customHeight="1">
+      <c r="K80" s="11">
+        <v>5839.2700000000004</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="12">
         <v>110</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
-      <c t="s" r="I80" s="15">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c t="s" r="F81" s="13">
         <v>111</v>
       </c>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
+      <c t="s" r="I81" s="15">
+        <v>112</v>
+      </c>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="236">
+  <mergeCells count="239">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3132,10 +3161,13 @@
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="I80:N80"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:N81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
